--- a/tabby/test.xlsx
+++ b/tabby/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\go\ReadExcel\tabby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6728B-8603-403E-A111-1A9FD234BE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48118D58-289B-4085-AAA8-6D19F25517FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>test4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##分组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -171,10 +183,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +488,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +500,9 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -497,21 +513,27 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -519,28 +541,31 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>111.22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="b">
+      <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
